--- a/_excel/__tables__.xlsx
+++ b/_excel/__tables__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GodotTemplate\_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\Project\GodotTemplate\_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8536BF6D-EF03-4D91-ACA2-150F44A629D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9476315-E1C6-42EB-98A8-8955549B2853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1390" yWindow="4820" windowWidth="28800" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4303" yWindow="4663" windowWidth="24694" windowHeight="13054" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -488,22 +488,22 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.53515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.4609375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.53515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.4609375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.4609375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="18" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -538,7 +538,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -570,7 +570,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
